--- a/Payroll/Content/REPORTES/BAJAS_EMPLEADOS/BAJA_FEC_F20200101_F20200801.xlsx
+++ b/Payroll/Content/REPORTES/BAJAS_EMPLEADOS/BAJA_FEC_F20200101_F20200801.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Empresa</t>
   </si>
@@ -63,6 +63,51 @@
   </si>
   <si>
     <t>Nombre puesto</t>
+  </si>
+  <si>
+    <t>OPCION</t>
+  </si>
+  <si>
+    <t>FRANCO</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>ALEJANDRA AURORA</t>
+  </si>
+  <si>
+    <t>65028333899</t>
+  </si>
+  <si>
+    <t>FAHA830423C95</t>
+  </si>
+  <si>
+    <t>FAHA830423MVZRRL05</t>
+  </si>
+  <si>
+    <t>11/11/2019</t>
+  </si>
+  <si>
+    <t>ESP001</t>
+  </si>
+  <si>
+    <t>NO APLICA</t>
+  </si>
+  <si>
+    <t>FINIQUITO VOLUNTARIO</t>
+  </si>
+  <si>
+    <t>TUXPAN 5</t>
+  </si>
+  <si>
+    <t>RAHUF</t>
+  </si>
+  <si>
+    <t>ESPECIALISTA DE BANCA COMUNAL</t>
+  </si>
+  <si>
+    <t>GRPBUSINESS</t>
   </si>
 </sst>
 </file>
@@ -117,7 +162,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -175,6 +220,65 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0">
+        <v>12</v>
+      </c>
+      <c r="B2" s="0">
+        <v>92911</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="0">
+        <v>4666.66</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <headerFooter/>
